--- a/results/database_trap/database_trap.xlsx
+++ b/results/database_trap/database_trap.xlsx
@@ -14,30 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>substance name</t>
-  </si>
-  <si>
-    <t>file name</t>
-  </si>
-  <si>
-    <t>CAS</t>
-  </si>
-  <si>
-    <t>other names</t>
-  </si>
-  <si>
-    <t>molecular formula</t>
-  </si>
-  <si>
-    <t>monoisotopic mass</t>
-  </si>
-  <si>
-    <t>array length</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>substance_name</t>
+  </si>
+  <si>
+    <t>other_names</t>
+  </si>
+  <si>
+    <t>molecular_formula</t>
+  </si>
+  <si>
+    <t>monoisotopic_mass</t>
+  </si>
+  <si>
+    <t>array_length</t>
   </si>
   <si>
     <t>mz</t>
@@ -46,85 +40,250 @@
     <t>intensities</t>
   </si>
   <si>
+    <t>62-53-3</t>
+  </si>
+  <si>
+    <t>71-43-2</t>
+  </si>
+  <si>
+    <t>123-86-4</t>
+  </si>
+  <si>
+    <t>67-66-3</t>
+  </si>
+  <si>
+    <t>110-82-7</t>
+  </si>
+  <si>
+    <t>123-91-1</t>
+  </si>
+  <si>
+    <t>68-12-2</t>
+  </si>
+  <si>
+    <t>67-68-5</t>
+  </si>
+  <si>
+    <t>141-78-6</t>
+  </si>
+  <si>
+    <t>110-54-3</t>
+  </si>
+  <si>
+    <t>75-52--5</t>
+  </si>
+  <si>
+    <t>67-63-0</t>
+  </si>
+  <si>
+    <t>110-86-1</t>
+  </si>
+  <si>
+    <t>108-88-3</t>
+  </si>
+  <si>
+    <t>Aniline</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Butyl acetate</t>
+  </si>
+  <si>
+    <t>Chloroform</t>
+  </si>
+  <si>
+    <t>Cyclohexane</t>
+  </si>
+  <si>
+    <t>1,4-Dioxane</t>
+  </si>
+  <si>
+    <t>Dimethylformamide</t>
+  </si>
+  <si>
+    <t>Dimethyl sulfoxide</t>
+  </si>
+  <si>
+    <t>Ethyl acetate</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
     <t>Nitromethane</t>
   </si>
   <si>
-    <t>Chloroform</t>
-  </si>
-  <si>
-    <t>Cyclohexane</t>
-  </si>
-  <si>
-    <t>Hexane</t>
+    <t>Propan-2-ol</t>
+  </si>
+  <si>
+    <t>Pyridine</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>1-Aminobenzene; Aminobenzene</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1-Acetoxybutane; 1-Butyl acetate; Acetic acid, Butyl ester</t>
+  </si>
+  <si>
+    <t>Methane trichloride; Methane, trichloro-</t>
+  </si>
+  <si>
+    <t>1,4-Diethylenedioxide; 1,4-Dioxacyclohexane</t>
+  </si>
+  <si>
+    <t>Dimethyl formamide; N,N-Dimethylformamide; Formic acid, amide, N,N-dimethyl-; DMF</t>
+  </si>
+  <si>
+    <t>Dimethyl sulphoxide; (Methylsulfinyl)methane; DMSO</t>
+  </si>
+  <si>
+    <t>Ethyl acetic ester; 1-Acetoxyethane</t>
+  </si>
+  <si>
+    <t>n-Hexane</t>
+  </si>
+  <si>
+    <t>Methane, nitro-</t>
+  </si>
+  <si>
+    <t>2-Hydroxypropane; 2-Propyl alcohol; Isopropanol; Isopropyl alcohol</t>
+  </si>
+  <si>
+    <t>3-Pyridinyl</t>
+  </si>
+  <si>
+    <t>Methyl benzene</t>
+  </si>
+  <si>
+    <t>C6H7N</t>
+  </si>
+  <si>
+    <t>C6H6</t>
+  </si>
+  <si>
+    <t>C6H12O2</t>
+  </si>
+  <si>
+    <t>CHCl3</t>
+  </si>
+  <si>
+    <t>C6H12</t>
+  </si>
+  <si>
+    <t>C4H8O2</t>
+  </si>
+  <si>
+    <t>C3H7NO</t>
+  </si>
+  <si>
+    <t>C2H6OS</t>
+  </si>
+  <si>
+    <t>C6H14</t>
   </si>
   <si>
     <t>CH3NO2</t>
   </si>
   <si>
-    <t>CHCl3</t>
-  </si>
-  <si>
-    <t>CycloHexane</t>
-  </si>
-  <si>
-    <t>75-62-5</t>
-  </si>
-  <si>
-    <t>67-66-3</t>
-  </si>
-  <si>
-    <t>110-82-7</t>
-  </si>
-  <si>
-    <t>110-54-3</t>
-  </si>
-  <si>
-    <t>Methane, nitro</t>
-  </si>
-  <si>
-    <t>methane trichloride, methane, trichloro-</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>n-hexane</t>
-  </si>
-  <si>
-    <t>C6H12</t>
-  </si>
-  <si>
-    <t>C6H14</t>
-  </si>
-  <si>
-    <t>61.016376</t>
-  </si>
-  <si>
-    <t>117.914383</t>
-  </si>
-  <si>
-    <t>84.093903</t>
-  </si>
-  <si>
-    <t>86.10955</t>
-  </si>
-  <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>[3.0, 3.1, 3.2, 3.3000000000000003, 3.4000000000000004, 3.5000000000000004, 3.6000000000000005, 3.7000000000000006, 3.8000000000000007, 3.900000000000001, 4.000000000000001, 4.100000000000001, 4.200000000000001, 4.300000000000001, 4.400000000000001, 4.500000000000002, 4.600000000000001, 4.700000000000001, 4.800000000000002, 4.900000000000002, 5.000000000000002, 5.100000000000001, 5.200000000000002, 5.3000000000000025, 5.400000000000002, 5.500000000000002, 5.600000000000002, 5.700000000000003, 5.8000000000000025, 5.900000000000002, 6.000000000000003, 6.100000000000003, 6.200000000000003, 6.3000000000000025, 6.400000000000003, 6.5000000000000036, 6.600000000000003, 6.700000000000003, 6.800000000000003, 6.900000000000004, 7.0000000000000036, 7.100000000000003, 7.200000000000004, 7.300000000000004, 7.400000000000004, 7.5000000000000036, 7.600000000000004, 7.700000000000005, 7.800000000000004, 7.900000000000004, 8.000000000000004, 8.100000000000005, 8.200000000000005, 8.300000000000004, 8.400000000000006, 8.500000000000005, 8.600000000000005, 8.700000000000005, 8.800000000000004, 8.900000000000006, 9.000000000000005, 9.100000000000005, 9.200000000000006, 9.300000000000006, 9.400000000000006, 9.500000000000005, 9.600000000000005, 9.700000000000006, 9.800000000000006, 9.900000000000006, 10.000000000000007, 10.100000000000007, 10.200000000000006, 10.300000000000006, 10.400000000000006, 10.500000000000007, 10.600000000000007, 10.700000000000006, 10.800000000000008, 10.900000000000007, 11.000000000000007, 11.100000000000007, 11.200000000000006, 11.300000000000008, 11.400000000000007, 11.500000000000007, 11.600000000000009, 11.700000000000008, 11.800000000000008, 11.900000000000007, 12.000000000000007, 12.100000000000009, 12.200000000000008, 12.300000000000008, 12.40000000000001, 12.500000000000009, 12.600000000000009, 12.700000000000008, 12.800000000000008, 12.90000000000001, 13.000000000000009, 13.100000000000009, 13.20000000000001, 13.30000000000001, 13.40000000000001, 13.500000000000009, 13.600000000000009, 13.70000000000001, 13.80000000000001, 13.90000000000001, 14.00000000000001, 14.10000000000001, 14.20000000000001, 14.30000000000001, 14.40000000000001, 14.50000000000001, 14.60000000000001, 14.70000000000001, 14.800000000000011, 14.900000000000011, 15.00000000000001, 15.10000000000001, 15.20000000000001, 15.300000000000011, 15.400000000000011, 15.50000000000001, 15.600000000000012, 15.700000000000012, 15.800000000000011, 15.900000000000011, 16.00000000000001, 16.100000000000012, 16.20000000000001, 16.30000000000001, 16.400000000000013, 16.500000000000014, 16.600000000000012, 16.70000000000001, 16.80000000000001, 16.900000000000013, 17.000000000000014, 17.100000000000012, 17.200000000000014, 17.30000000000001, 17.400000000000013, 17.500000000000014, 17.600000000000012, 17.700000000000014, 17.80000000000001, 17.900000000000013, 18.000000000000014, 18.100000000000016, 18.200000000000014, 18.30000000000001, 18.400000000000013, 18.500000000000014, 18.600000000000016, 18.700000000000014, 18.800000000000015, 18.900000000000013, 19.000000000000014, 19.100000000000016, 19.200000000000014, 19.300000000000015, 19.400000000000013, 19.500000000000014, 19.600000000000016, 19.700000000000014, 19.800000000000015, 19.900000000000016, 20.000000000000014, 20.100000000000016, 20.200000000000017, 20.300000000000015, 20.400000000000016, 20.500000000000014, 20.600000000000016, 20.700000000000017, 20.800000000000015, 20.900000000000016, 21.000000000000014, 21.100000000000016, 21.200000000000017, 21.300000000000015, 21.400000000000016, 21.500000000000018, 21.600000000000016, 21.700000000000017, 21.80000000000002, 21.900000000000016, 22.000000000000018, 22.100000000000016, 22.200000000000017, 22.30000000000002, 22.400000000000016, 22.500000000000018, 22.600000000000016, 22.700000000000017, 22.80000000000002, 22.900000000000016, 23.000000000000018, 23.10000000000002, 23.200000000000017, 23.30000000000002, 23.40000000000002, 23.500000000000018, 23.60000000000002, 23.700000000000017, 23.80000000000002, 23.90000000000002, 24.000000000000018, 24.10000000000002, 24.200000000000017, 24.30000000000002, 24.40000000000002, 24.500000000000018, 24.60000000000002, 24.70000000000002, 24.80000000000002, 24.90000000000002, 25.00000000000002, 25.10000000000002, 25.20000000000002, 25.30000000000002, 25.40000000000002, 25.50000000000002, 25.60000000000002, 25.70000000000002, 25.80000000000002, 25.90000000000002, 26.00000000000002, 26.10000000000002, 26.20000000000002, 26.300000000000022, 26.40000000000002, 26.50000000000002, 26.600000000000023, 26.70000000000002, 26.800000000000022, 26.90000000000002, 27.00000000000002, 27.100000000000023, 27.20000000000002, 27.300000000000022, 27.40000000000002, 27.50000000000002, 27.600000000000023, 27.70000000000002, 27.800000000000022, 27.900000000000023, 28.00000000000002, 28.100000000000023, 28.200000000000024, 28.300000000000022, 28.400000000000023, 28.50000000000002, 28.600000000000023, 28.700000000000024, 28.800000000000022, 28.900000000000023, 29.00000000000002, 29.100000000000023, 29.200000000000024, 29.300000000000022, 29.400000000000023, 29.500000000000025, 29.600000000000023, 29.700000000000024, 29.800000000000026, 29.900000000000023, 30.000000000000025, 30.100000000000023, 30.200000000000024, 30.300000000000026, 30.400000000000023, 30.500000000000025, 30.600000000000023, 30.700000000000024, 30.800000000000026, 30.900000000000023, 31.000000000000025, 31.100000000000026, 31.200000000000024, 31.300000000000026, 31.400000000000027, 31.500000000000025, 31.600000000000026, 31.700000000000024, 31.800000000000026, 31.900000000000027, 32.00000000000003, 32.10000000000002, 32.200000000000024, 32.300000000000026, 32.40000000000003, 32.50000000000003, 32.60000000000002, 32.70000000000003, 32.800000000000026, 32.90000000000003, 33.00000000000003, 33.10000000000002, 33.20000000000003, 33.300000000000026, 33.40000000000003, 33.50000000000003, 33.60000000000002, 33.70000000000003, 33.800000000000026, 33.90000000000003, 34.00000000000003, 34.10000000000002, 34.20000000000003, 34.300000000000026, 34.40000000000003, 34.50000000000003, 34.60000000000003, 34.70000000000003, 34.800000000000026, 34.90000000000003, 35.00000000000003, 35.10000000000003, 35.20000000000003, 35.300000000000026, 35.40000000000003, 35.50000000000003, 35.60000000000003, 35.70000000000003, 35.800000000000026, 35.90000000000003, 36.00000000000003, 36.10000000000003, 36.20000000000003, 36.30000000000003, 36.40000000000003, 36.50000000000003, 36.60000000000003, 36.70000000000003, 36.80000000000003, 36.90000000000003, 37.00000000000003, 37.10000000000003, 37.20000000000003, 37.30000000000003, 37.400000000000034, 37.50000000000003, 37.60000000000003, 37.70000000000003, 37.80000000000003, 37.900000000000034, 38.00000000000003, 38.10000000000003, 38.20000000000003, 38.30000000000003, 38.400000000000034, 38.50000000000003, 38.60000000000003, 38.70000000000003, 38.80000000000003, 38.900000000000034, 39.00000000000003, 39.10000000000003, 39.20000000000003, 39.30000000000003, 39.400000000000034, 39.500000000000036, 39.60000000000003, 39.70000000000003, 39.80000000000003, 39.900000000000034, 40.000000000000036, 40.10000000000003, 40.20000000000003, 40.30000000000003, 40.400000000000034, 40.500000000000036, 40.60000000000004, 40.70000000000003, 40.80000000000003, 40.900000000000034, 41.000000000000036, 41.10000000000004, 41.20000000000003, 41.30000000000003, 41.400000000000034, 41.500000000000036, 41.60000000000004, 41.70000000000003, 41.80000000000003, 41.900000000000034, 42.000000000000036, 42.10000000000004, 42.20000000000003, 42.30000000000003, 42.400000000000034, 42.500000000000036, 42.60000000000004, 42.70000000000004, 42.80000000000003, 42.900000000000034, 43.000000000000036, 43.10000000000004, 43.20000000000004, 43.30000000000003, 43.400000000000034, 43.500000000000036, 43.60000000000004, 43.70000000000004, 43.80000000000004, 43.900000000000034, 44.000000000000036, 44.10000000000004, 44.20000000000004, 44.30000000000004, 44.400000000000034, 44.500000000000036, 44.60000000000004, 44.70000000000004, 44.80000000000004, 44.900000000000034, 45.000000000000036, 45.10000000000004, 45.20000000000004, 45.30000000000004, 45.400000000000034, 45.500000000000036, 45.60000000000004, 45.70000000000004, 45.80000000000004, 45.90000000000004, 46.000000000000036, 46.10000000000004, 46.20000000000004, 46.30000000000004, 46.40000000000004, 46.500000000000036, 46.60000000000004, 46.70000000000004, 46.80000000000004, 46.90000000000004, 47.00000000000004, 47.10000000000004, 47.20000000000004, 47.30000000000004, 47.40000000000004, 47.50000000000004, 47.60000000000004, 47.70000000000004, 47.80000000000004, 47.90000000000004, 48.00000000000004, 48.10000000000004, 48.20000000000004, 48.30000000000004, 48.40000000000004, 48.50000000000004, 48.60000000000004, 48.70000000000004, 48.80000000000004, 48.90000000000004, 49.00000000000004, 49.100000000000044, 49.20000000000004, 49.30000000000004, 49.40000000000004, 49.50000000000004, 49.600000000000044, 49.70000000000004, 49.80000000000004, 49.90000000000004, 50.00000000000004, 50.100000000000044, 50.200000000000045, 50.30000000000004, 50.40000000000004, 50.50000000000004, 50.600000000000044, 50.700000000000045, 50.80000000000004, 50.90000000000004, 51.00000000000004, 51.100000000000044, 51.200000000000045, 51.30000000000004, 51.40000000000004, 51.50000000000004, 51.600000000000044, 51.700000000000045, 51.80000000000004, 51.90000000000004, 52.00000000000004, 52.100000000000044, 52.200000000000045, 52.30000000000005, 52.40000000000004, 52.50000000000004, 52.600000000000044, 52.700000000000045, 52.80000000000005, 52.90000000000004, 53.00000000000004, 53.100000000000044, 53.200000000000045, 53.30000000000005, 53.40000000000005, 53.50000000000004, 53.600000000000044, 53.700000000000045, 53.80000000000005, 53.90000000000005, 54.00000000000004, 54.100000000000044, 54.200000000000045, 54.30000000000005, 54.40000000000005, 54.50000000000004, 54.600000000000044, 54.700000000000045, 54.80000000000005, 54.90000000000005, 55.00000000000004, 55.100000000000044, 55.200000000000045, 55.30000000000005, 55.40000000000005, 55.50000000000005, 55.600000000000044, 55.700000000000045, 55.80000000000005, 55.90000000000005, 56.00000000000005, 56.100000000000044, 56.200000000000045, 56.30000000000005, 56.40000000000005, 56.50000000000005, 56.60000000000005, 56.700000000000045, 56.80000000000005, 56.90000000000005, 57.00000000000005, 57.10000000000005, 57.200000000000045, 57.30000000000005, 57.40000000000005, 57.50000000000005, 57.60000000000005, 57.700000000000045, 57.80000000000005, 57.90000000000005, 58.00000000000005, 58.10000000000005, 58.200000000000045, 58.30000000000005, 58.40000000000005, 58.50000000000005, 58.60000000000005, 58.70000000000005, 58.80000000000005, 58.90000000000005, 59.00000000000005, 59.10000000000005, 59.20000000000005, 59.30000000000005, 59.40000000000005, 59.50000000000005, 59.60000000000005, 59.70000000000005, 59.800000000000054, 59.90000000000005, 60.00000000000005, 60.10000000000005, 60.20000000000005, 60.300000000000054, 60.40000000000005, 60.50000000000005, 60.60000000000005, 60.70000000000005, 60.800000000000054, 60.90000000000005, 61.00000000000005, 61.10000000000005, 61.20000000000005, 61.300000000000054, 61.40000000000005, 61.50000000000005, 61.60000000000005, 61.70000000000005, 61.800000000000054, 61.900000000000055, 62.00000000000005, 62.10000000000005, 62.20000000000005, 62.300000000000054, 62.400000000000055, 62.50000000000005, 62.60000000000005, 62.70000000000005, 62.800000000000054, 62.900000000000055, 63.00000000000006, 63.10000000000005, 63.20000000000005, 63.300000000000054, 63.400000000000055, 63.50000000000006, 63.60000000000005, 63.70000000000005, 63.800000000000054, 63.900000000000055, 64.00000000000006, 64.10000000000005, 64.20000000000005, 64.30000000000005, 64.40000000000006, 64.50000000000006, 64.60000000000005, 64.70000000000005, 64.80000000000005, 64.90000000000006, 65.00000000000006, 65.10000000000005, 65.20000000000005, 65.30000000000005, 65.40000000000006, 65.50000000000006, 65.60000000000005, 65.70000000000005, 65.80000000000005, 65.90000000000006, 66.00000000000006, 66.10000000000005, 66.20000000000006, 66.30000000000005, 66.40000000000006, 66.50000000000006, 66.60000000000005, 66.70000000000006, 66.80000000000005, 66.90000000000006, 67.00000000000006, 67.10000000000005, 67.20000000000006, 67.30000000000005, 67.40000000000006, 67.50000000000006, 67.60000000000005, 67.70000000000006, 67.80000000000005, 67.90000000000006, 68.00000000000006, 68.10000000000005, 68.20000000000006, 68.30000000000005, 68.40000000000006, 68.50000000000006, 68.60000000000005, 68.70000000000006, 68.80000000000005, 68.90000000000006, 69.00000000000006, 69.10000000000007, 69.20000000000006, 69.30000000000005, 69.40000000000006, 69.50000000000006, 69.60000000000007, 69.70000000000006, 69.80000000000005, 69.90000000000006, 70.00000000000006, 70.10000000000007, 70.20000000000006, 70.30000000000005, 70.40000000000006, 70.50000000000006, 70.60000000000007, 70.70000000000006, 70.80000000000005, 70.90000000000006, 71.00000000000006, 71.10000000000007, 71.20000000000006, 71.30000000000005, 71.40000000000006, 71.50000000000006, 71.60000000000007, 71.70000000000006, 71.80000000000007, 71.90000000000006, 72.00000000000006, 72.10000000000007, 72.20000000000006, 72.30000000000007, 72.40000000000006, 72.50000000000006, 72.60000000000007, 72.70000000000006, 72.80000000000007, 72.90000000000006, 73.00000000000006, 73.10000000000007, 73.20000000000006, 73.30000000000007, 73.40000000000006, 73.50000000000006, 73.60000000000007, 73.70000000000006, 73.80000000000007, 73.90000000000006, 74.00000000000006, 74.10000000000007, 74.20000000000006, 74.30000000000007, 74.40000000000006, 74.50000000000006, 74.60000000000007, 74.70000000000006, 74.80000000000007, 74.90000000000006, 75.00000000000006, 75.10000000000007, 75.20000000000006, 75.30000000000007, 75.40000000000006, 75.50000000000007, 75.60000000000007, 75.70000000000006, 75.80000000000007, 75.90000000000006, 76.00000000000007, 76.10000000000007, 76.20000000000006, 76.30000000000007, 76.40000000000006, 76.50000000000007, 76.60000000000007, 76.70000000000006, 76.80000000000007, 76.90000000000006, 77.00000000000007, 77.10000000000007, 77.20000000000006, 77.30000000000007, 77.40000000000006, 77.50000000000007, 77.60000000000007, 77.70000000000006, 77.80000000000007, 77.90000000000006, 78.00000000000007, 78.10000000000007, 78.20000000000007, 78.30000000000007, 78.40000000000006, 78.50000000000007, 78.60000000000007, 78.70000000000007, 78.80000000000007, 78.90000000000006, 79.00000000000007, 79.10000000000007, 79.20000000000007, 79.30000000000007, 79.40000000000006, 79.50000000000007, 79.60000000000007, 79.70000000000007, 79.80000000000007, 79.90000000000006, 80.00000000000007, 80.10000000000007, 80.20000000000007, 80.30000000000007, 80.40000000000006, 80.50000000000007, 80.60000000000007, 80.70000000000007, 80.80000000000007, 80.90000000000006, 81.00000000000007, 81.10000000000007, 81.20000000000007, 81.30000000000007, 81.40000000000006, 81.50000000000007, 81.60000000000007, 81.70000000000007, 81.80000000000007, 81.90000000000008, 82.00000000000007, 82.10000000000007, 82.20000000000007, 82.30000000000007, 82.40000000000008, 82.50000000000007, 82.60000000000007, 82.70000000000007, 82.80000000000007, 82.90000000000008, 83.00000000000007, 83.10000000000007, 83.20000000000007, 83.30000000000007, 83.40000000000008, 83.50000000000007, 83.60000000000007, 83.70000000000007, 83.80000000000007, 83.90000000000008, 84.00000000000007, 84.10000000000007, 84.20000000000007, 84.30000000000007, 84.40000000000008, 84.50000000000007, 84.60000000000008, 84.70000000000007, 84.80000000000007, 84.90000000000008, 85.00000000000007, 85.10000000000008, 85.20000000000007, 85.30000000000007, 85.40000000000008, 85.50000000000007, 85.60000000000008, 85.70000000000007, 85.80000000000007, 85.90000000000008, 86.00000000000007, 86.10000000000008, 86.20000000000007, 86.30000000000007, 86.40000000000008, 86.50000000000007, 86.60000000000008, 86.70000000000007, 86.80000000000007, 86.90000000000008, 87.00000000000007, 87.10000000000008, 87.20000000000007, 87.30000000000007, 87.40000000000008, 87.50000000000007, 87.60000000000008, 87.70000000000007, 87.80000000000007, 87.90000000000008, 88.00000000000007, 88.10000000000008, 88.20000000000007, 88.30000000000008, 88.40000000000008, 88.50000000000007, 88.60000000000008, 88.70000000000007, 88.80000000000008, 88.90000000000008, 89.00000000000007, 89.10000000000008, 89.20000000000007, 89.30000000000008, 89.40000000000008, 89.50000000000007, 89.60000000000008, 89.70000000000007, 89.80000000000008, 89.90000000000008, 90.00000000000007, 90.10000000000008, 90.20000000000007, 90.30000000000008, 90.40000000000008, 90.50000000000007, 90.60000000000008, 90.70000000000007, 90.80000000000008, 90.90000000000008, 91.00000000000009, 91.10000000000008, 91.20000000000007, 91.30000000000008, 91.40000000000008, 91.50000000000009, 91.60000000000008, 91.70000000000007, 91.80000000000008, 91.90000000000008, 92.00000000000009, 92.10000000000008, 92.20000000000007, 92.30000000000008, 92.40000000000008, 92.50000000000009, 92.60000000000008, 92.70000000000007, 92.80000000000008, 92.90000000000008, 93.00000000000009, 93.10000000000008, 93.20000000000007, 93.30000000000008, 93.40000000000008, 93.50000000000009, 93.60000000000008, 93.70000000000007, 93.80000000000008, 93.90000000000008, 94.00000000000009, 94.10000000000008, 94.20000000000007, 94.30000000000008, 94.40000000000008, 94.50000000000009, 94.60000000000008, 94.70000000000009, 94.80000000000008, 94.90000000000008, 95.00000000000009, 95.10000000000008, 95.20000000000009, 95.30000000000008, 95.40000000000008, 95.50000000000009, 95.60000000000008, 95.70000000000009, 95.80000000000008, 95.90000000000008, 96.00000000000009, 96.10000000000008, 96.20000000000009, 96.30000000000008, 96.40000000000008, 96.50000000000009, 96.60000000000008, 96.70000000000009, 96.80000000000008, 96.90000000000008, 97.00000000000009, 97.10000000000008, 97.20000000000009, 97.30000000000008, 97.40000000000009, 97.50000000000009, 97.60000000000008, 97.70000000000009, 97.80000000000008, 97.90000000000009, 98.00000000000009, 98.10000000000008, 98.20000000000009, 98.30000000000008, 98.40000000000009, 98.50000000000009, 98.60000000000008, 98.70000000000009, 98.80000000000008, 98.90000000000009, 99.00000000000009, 99.10000000000008, 99.20000000000009, 99.30000000000008, 99.40000000000009, 99.50000000000009, 99.60000000000008, 99.70000000000009, 99.80000000000008, 99.90000000000009, 100.00000000000009]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.19425389456840325, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2828550003426657, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.07571324936872477, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06054491284868892, 0.10339156038274432, 1.0, 0.42335237562961503, 0.092575310749981, 0.05148278622813248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.09107013171644705, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05632096035649984, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.26523831735731956, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06355809990006912, 0.20489104824361248, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05046511791860406, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05364480004448029, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06426918953335788, 0.18019451009634269, 1.0, 0.09761508447842707, 0.05547280174948686, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2760704108434665, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0819934828703986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05543625570876543, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.12945028091241306, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21877870641688904, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.14231312788956607, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05394805362914569, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.08698304368757986, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06426126760955285, 0.3741294812429961, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06421918901081902, 0.10673200367611359, 0.7448693922317114, 0.876503628469937, 0.11532282377267063, 0.07305671689711846, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.21349630452230797, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06341398861844887, 0.1344260604062419, 0.8156543403819055, 0.1278251576868514, 0.05026964374929514, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13581192842526893, 0.8340823248192977, 0.08587968717827049, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1582141257799163, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.13230563406883242, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0898500599265118, 0.45125520857526635, 0.06903392335743833, 0.0, 0.0, 0.0, 0.0, 0.05269544515352783, 0.08223786537824004, 0.11405974178618371, 0.351119074938634, 1.0, 0.15149759209335747, 0.06956319234485235, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.17104188030120782, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.11086183926520432, 0.5620234570300278, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05154516536304499, 0.05428377756366433, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.402002205008964, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.1807042096552529, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06996258831985033, 0.430138377547782, 0.05450992333539081, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0653961729709526, 0.4819812025183907, 0.09662531744823949, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.05899392794744569, 0.13336494993552123, 1.0, 0.13503914419387392, 0.06008797914679229, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.2424523527157556, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.43160726109620207, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06899560527514768, 0.4419378506241586, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.06194501802571912, 0.15721308670107592, 0.7384878449979904, 0.11464235529079152, 0.05967180404883944, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.10286557629687386, 0.10382880622438469, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]</t>
+    <t>C3H8O</t>
+  </si>
+  <si>
+    <t>C5H5N</t>
+  </si>
+  <si>
+    <t>C7H8</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 16.0, 17.0, 18.0, 19.0, 26.0, 27.0, 28.0, 29.0, 30.0, 32.0, 34.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 45.0, 47.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 68.0, 69.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 89.0, 90.0, 91.0, 92.0, 93.0, 94.0, 95.0, 96.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 17.0, 18.0, 27.0, 37.0, 38.0, 39.0, 40.0, 49.0, 50.0, 51.0, 52.0, 53.0, 61.0, 62.0, 63.0, 64.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 7.0, 9.0, 15.0, 16.0, 17.0, 18.0, 19.0, 27.0, 28.0, 29.0, 30.0, 32.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 47.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 61.0, 62.0, 63.0, 68.0, 70.0, 72.0, 73.0, 74.0, 75.0, 80.0, 84.0, 86.0, 87.0, 88.0, 102.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 29.0, 30.0, 31.0, 32.0, 33.0, 35.0, 36.0, 37.0, 38.0, 43.0, 47.0, 48.0, 49.0, 50.0, 51.0, 70.0, 72.0, 73.0, 82.0, 83.0, 84.0, 85.0, 86.0, 87.0, 88.0, 117.0, 118.0, 119.0, 120.0, 121.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 7.0, 8.0, 10.0, 16.0, 17.0, 18.0, 25.0, 26.0, 27.0, 28.0, 29.0, 30.0, 32.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 68.0, 69.0, 70.0, 71.0, 74.0, 75.0, 77.0, 78.0, 79.0, 80.0, 82.0, 83.0, 84.0, 85.0, 86.0, 105.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 20.0, 21.0, 22.0, 23.0, 24.0, 25.0, 26.0, 27.0, 28.0, 29.0, 30.0, 31.0, 32.0, 33.0, 34.0, 35.0, 36.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 45.0, 46.0, 47.0, 48.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 60.0, 61.0, 62.0, 63.0, 64.0, 65.0, 67.0, 68.0, 70.0, 71.0, 72.0, 73.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0, 82.0, 83.0, 84.0, 85.0, 86.0, 87.0, 88.0, 89.0, 90.0, 91.0, 92.0, 93.0, 94.0, 95.0, 96.0, 97.0, 98.0, 99.0, 100.0, 101.0, 102.0, 103.0, 104.0, 105.0, 106.0, 107.0, 109.0, 110.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 27.0, 28.0, 29.0, 30.0, 31.0, 32.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 45.0, 47.0, 56.0, 57.0, 58.0, 59.0, 63.0, 72.0, 73.0, 74.0, 75.0, 76.0, 78.0, 79.0, 91.0, 92.0, 93.0, 105.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 20.0, 21.0, 22.0, 23.0, 24.0, 25.0, 26.0, 27.0, 29.0, 30.0, 31.0, 32.0, 33.0, 34.0, 35.0, 36.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 45.0, 46.0, 47.0, 48.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 60.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 68.0, 69.0, 70.0, 71.0, 72.0, 73.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0, 82.0, 83.0, 84.0, 85.0, 86.0, 87.0, 88.0, 89.0, 90.0, 91.0, 92.0, 93.0, 94.0, 95.0, 96.0, 97.0, 98.0, 99.0, 100.0, 101.0, 102.0, 103.0, 104.0, 105.0, 106.0, 107.0, 108.0, 109.0, 110.0, 111.0, 112.0, 113.0, 114.0, 115.0, 116.0, 117.0, 118.0, 119.0, 120.0, 121.0, 122.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 7.0, 9.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 27.0, 28.0, 29.0, 30.0, 31.0, 32.0, 33.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 47.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 61.0, 62.0, 69.0, 70.0, 71.0, 72.0, 73.0, 74.0, 82.0, 83.0, 84.0, 86.0, 87.0, 88.0]</t>
+  </si>
+  <si>
+    <t>[10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 20.0, 21.0, 22.0, 23.0, 24.0, 25.0, 26.0, 27.0, 28.0, 29.0, 30.0, 31.0, 32.0, 33.0, 34.0, 35.0, 36.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 46.0, 47.0, 48.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 60.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 68.0, 69.0, 70.0, 71.0, 72.0, 73.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0, 82.0, 83.0, 84.0, 85.0, 86.0, 87.0, 88.0, 89.0, 90.0, 91.0, 92.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 13.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 20.0, 21.0, 22.0, 23.0, 24.0, 25.0, 26.0, 27.0, 29.0, 30.0, 31.0, 32.0, 33.0, 34.0, 35.0, 36.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 45.0, 46.0, 47.0, 48.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 55.0, 56.0, 57.0, 58.0, 59.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 68.0, 69.0, 70.0, 71.0, 72.0, 73.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0, 82.0, 83.0, 84.0, 85.0, 86.0, 87.0, 88.0, 89.0, 90.0, 91.0, 92.0, 93.0, 94.0, 95.0, 96.0, 98.0, 99.0, 100.0, 101.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 14.0, 15.0, 16.0, 17.0, 18.0, 19.0, 20.0, 26.0, 27.0, 28.0, 29.0, 30.0, 31.0, 32.0, 37.0, 38.0, 39.0, 40.0, 41.0, 42.0, 43.0, 44.0, 45.0, 46.0, 47.0, 59.0, 60.0, 61.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 12.0, 14.0, 17.0, 18.0, 19.0, 26.0, 27.0, 29.0, 30.0, 31.0, 32.0, 37.0, 38.0, 39.0, 40.0, 41.0, 43.0, 49.0, 50.0, 51.0, 52.0, 53.0, 54.0, 63.0, 64.0, 65.0, 74.0, 75.0, 76.0, 77.0, 78.0, 79.0, 80.0, 81.0, 82.0]</t>
+  </si>
+  <si>
+    <t>[4.0, 5.0, 6.0, 7.0, 8.0, 9.0, 10.0, 11.0, 17.0, 27.0, 37.0, 38.0, 39.0, 40.0, 41.0, 47.0, 50.0, 51.0, 52.0, 53.0, 61.0, 62.0, 63.0, 64.0, 65.0, 66.0, 67.0, 74.0, 75.0, 76.0, 77.0, 78.0, 85.0, 86.0, 87.0, 88.0, 89.0, 90.0, 91.0, 92.0, 93.0, 94.0]</t>
+  </si>
+  <si>
+    <t>[0.014824114968635494, 0.012396101119025178, 0.004779071834808472, 0.0029422731964815906, 0.029205392119572716, 0.0014115768026259196, 0.0010478379008287582, 0.049894149837561616, 0.003919920870432925, 0.0010909731607810294, 0.011550160994847855, 0.06853982328144641, 0.137757663471754, 0.005089120524821136, 0.04398324860229566, 0.024879244834931414, 0.20120993965706463, 0.003210060106958769, 0.01146311037386848, 0.0019369308762508164, 0.010564746478698712, 0.10014245687767248, 0.17477433985285756, 0.3040014449300695, 0.04419962388037963, 0.06432780636241982, 0.0035000932568697426, 0.010505021130945485, 0.031500250113751266, 0.002264543281400601, 0.014492060541696281, 0.07752479767236398, 0.0679660385720415, 0.1085858673700652, 0.01048798054733902, 0.0548988568480887, 0.0012624699655976062, 0.0014108045272513677, 0.008549422917419804, 0.03443761088670171, 0.05253864094184606, 0.09587922423329046, 0.03698701351609274, 0.41757990234905334, 0.543871145495361, 0.03408216031633817, 0.0014225060654180946, 0.004373369323678667, 0.006787481753618303, 0.003600989194964259, 0.006251501767797218, 0.007226013408092881, 0.011389493460213658, 0.001110448121347069, 0.002281911519362377, 0.0011364705477416846, 0.002641855827269887, 0.012581383115330084, 0.18977729207806324, 1.0, 0.03668761892181939, 0.0022226050670164773]</t>
+  </si>
+  <si>
+    <t>[0.012036898826957566, 0.00855966932736299, 0.02352817453042652, 0.0014361621434733967, 0.002784754373422434, 0.08680025321276294, 0.0012783588817045141, 0.0010916937347428732, 0.01038130040824883, 0.06651288619620643, 0.029200646877503324, 0.0048478023698272504, 0.058968256765063176, 0.07598741613558625, 0.13489544552495966, 0.0018037753822881292, 0.03115323343329512, 0.2685764733472417, 0.22850117980877746, 0.1434460032502226, 0.0011429173912504407, 0.003897011210832333, 0.006461473551416305, 0.03616886489292279, 0.007322896822956664, 0.020919480395211812, 0.011316177066449946, 0.06279560366858375, 0.3882078013642061, 1.0, 0.033210593563935076, 0.0017212516956082466]</t>
+  </si>
+  <si>
+    <t>[0.022723490835811613, 0.0525463275346008, 0.019483782831446767, 0.0020402381143660013, 0.0012315705631589392, 0.05005465522172673, 0.01205292398841563, 0.20283347070529073, 0.5037186760161091, 0.01817555325788042, 0.07687659895211336, 0.139903466729785, 0.08931215358381472, 0.02172517620667424, 0.0010340221333863969, 0.0026223159596881164, 0.009451049953214677, 0.11441073779794324, 0.01272775213612735, 0.1796829896794363, 0.06964748565986979, 1.0, 0.0013061852243278084, 0.0017696507136297328, 0.004487074239422263, 0.0031727571347009227, 0.0011932591125408687, 0.0044058448531978985, 0.004412413016427286, 0.06467203649446752, 0.3464017419410107, 0.010568415142170398, 0.004045705187332556, 0.010730019125013509, 0.09736623695789948, 0.0013012911963073347, 0.0014041470541286663, 0.0012129779983854716, 0.004975953030877644, 0.005875180008019733, 0.0732977174070106, 0.0016107244158843621, 0.001015959732017648, 0.002652265143897556, 0.0015995885137577615, 0.0016149251003044361, 0.004730490248972964, 0.0014175995496403344]</t>
+  </si>
+  <si>
+    <t>[0.06793374361776315, 0.026168046382411683, 0.0027265226420739785, 0.0032173604993775856, 0.004184050519998804, 0.11833210265724406, 0.002152659219876223, 0.0026358441302970336, 0.0019849468385432405, 0.0014173720711566095, 0.09538106214434654, 0.006934305388479151, 0.01873200945810585, 0.13115711435307897, 0.5513575385676912, 0.019547528600793042, 0.40146584035458216, 0.3813394862033537, 0.14081534850719174, 0.19329894749790172, 0.005416090506829607, 0.010063159376399258, 0.0012169471292088941, 0.0010185400053615043, 0.4108200987225672, 0.19477740865160575, 0.08447370384960469, 0.014333366231852265, 0.007255325034447664, 0.002762493310761923, 0.0017737188660275265, 0.0015114781515756053, 0.028136732726216706, 1.0, 0.02385082271300744, 0.6397590512883706, 0.1378756375028056, 0.043438143936981324, 0.030152428131178837, 0.0027434461580124058, 0.006989227222608691, 0.007813014252304795, 0.00784855720789669, 0.005575336261564335, 0.0016369868758614574]</t>
+  </si>
+  <si>
+    <t>[0.04547980974015828, 0.08115180004497333, 0.07256829395788737, 0.012604577722094128, 0.04380314235922193, 0.004790068796713798, 0.24132466826044738, 1.0, 0.001431955529117415, 0.030569118394432628, 0.15426066501233976, 0.2588320017957146, 0.19526091187749472, 0.044472080634135575, 0.021863084692741237, 0.003232177443783762, 0.010560348312325767, 0.07795192012267825, 0.649151405695736, 0.0687146952161929, 0.8275228553333177, 0.19312936668195788, 0.003886864439348683, 0.008413610692814677, 0.02597020603162075, 0.022139499162621843, 0.009242175729545474, 0.039426043828826654, 0.043926505646552594, 0.41977429171475517, 0.8976022940053936, 0.012219868197440732, 0.0013081410874794747, 0.002510702288204802, 0.0034538533943916337, 0.006237700453719049, 0.0012802922450170123, 0.01034363317317653, 0.00406494721211577, 0.033654855334026304, 0.018715248308044084, 0.24039775863947352, 0.006160503858596293, 0.0014088770200525959, 0.0018351006339056225, 0.0012019210351848135, 0.0075394164863982855, 0.003462397875596216, 0.007599448053615573, 0.001809986621938579, 0.0029415559787827664, 0.04839042536236803, 0.6588104535931194, 0.023771914760056575, 0.0013178084602529934]</t>
+  </si>
+  <si>
+    <t>[0.07608822193458, 0.026873058120944992, 0.01999173835577223, 0.02602759312614034, 0.0182052741482854, 0.01789075193076789, 0.02145900243847939, 0.017257988836733868, 0.01691414401648814, 0.01666713811903133, 0.03468859440599874, 0.0957515901097547, 0.04543069055038821, 0.07739868301737751, 0.322632168700719, 0.03343994172973016, 0.02471029340323139, 0.023560271365203306, 0.025695909667799242, 0.029186914970473033, 0.03472926359294479, 0.04350754369273641, 0.09689440206601646, 0.25789580215241753, 0.7895796788748514, 1.0, 0.3035140220261092, 0.16181028260474142, 0.21111537046952927, 0.03435462547920061, 0.031544608810320354, 0.0260886122854409, 0.022895112827767083, 0.02016129482346337, 0.019177355500921197, 0.018160213807716593, 0.01787787262888712, 0.017627843474391475, 0.028875079019306745, 0.0898575288918736, 0.1792804585474457, 0.06823993295016156, 0.03512100135622856, 0.007538363044878328, 0.006603971675448196, 0.006548662768708798, 0.006336829500119445, 0.007816013787960291, 0.0070469538226246775, 0.008219354538537763, 0.009937428727463893, 0.01272371169127174, 0.017664675384192256, 0.0675986563857457, 0.13885894060895151, 0.10593269507425634, 0.004799091939199934, 0.005321593197300774, 0.0035394064685023434, 0.002195531148222477, 0.0017075414638289042, 0.0013300497815787766, 0.0010529411961529718, 0.0011104592072482108, 0.0010863127203071554, 0.0013622668479482348, 0.0011502461965895003, 0.0014132976273210423, 0.0014147410925467653, 0.0015002074555809577, 0.0016657158777984356, 0.001751165110046535, 0.0020196216967851587, 0.00210973789872884, 0.0024691297406921517, 0.0030406311786843896, 0.0036969276498668795, 0.004136785028969962, 0.004644829513466799, 0.006774402769675283, 0.008772931909093411, 0.01647063908203856, 0.07787265641380284, 0.1914604467444299, 0.015539554456221322, 0.009675273561657587, 0.006936093929073865, 0.005005211475093303, 0.004182339364022972, 0.0035798006869186055, 0.003076449266026184, 0.0026068342720772797, 0.002473199452964367, 0.0022017413943573906, 0.002046393801034025, 0.001729291548872528, 0.0017384944931481466, 0.0015383509358652269, 0.0015310480031549211, 0.0012655772963336824, 0.0013225687417237318, 0.0012047185357367356, 0.0011734092424118038, 0.0010521336746656432]</t>
+  </si>
+  <si>
+    <t>[0.06239401428373557, 0.07199481826711308, 0.005587811835558315, 0.006306762761395633, 0.06103449676680795, 0.0026765723774956032, 0.002958930705544724, 0.0019391367055385, 0.0025782036130528644, 0.0018621197678685766, 0.1925846758544364, 0.007173742934316144, 0.15006280556936952, 1.0, 0.00675612951980923, 0.3357298058582204, 0.6792271212910231, 0.3312588889323499, 0.1900474111471928, 0.046847112598045124, 0.006963168204908046, 0.008828353073875623, 0.0408292417752297, 0.054821310003806814, 0.6382452033779967, 0.22725188104590557, 0.42836258579879655, 0.3280831956654372, 0.0016453971544037223, 0.004798496771407851, 0.005092877535503889, 0.013015726905299915, 0.0103956673855962, 0.004614915200320161, 0.018480464081129754, 0.20915877868360297, 0.8359310507876003, 0.011033509906252199, 0.0010699670928296747, 0.0027199660328349863, 0.0016996295435788872, 0.0010600145803035578, 0.004459053421901231, 0.0014354293793555461, 0.002212381263305992]</t>
+  </si>
+  <si>
+    <t>[0.12625634213246692, 0.07319623642575035, 0.08219814428841343, 0.04630742485118981, 0.08344019297219855, 0.056832100796367566, 0.03177666334660833, 0.03126359436480161, 0.03140212096549234, 0.03282808304302724, 0.03639827347778479, 0.07684535108629757, 0.17002263732470077, 0.10919543960492253, 0.27745233473505554, 0.4934382240418728, 0.031600931337972586, 0.015557128694422483, 0.009740482590508488, 0.006711590454154999, 0.005745035783011053, 0.005261578468107865, 0.005762599916756525, 0.013664225916909146, 0.07431195230113663, 0.23441843914840418, 0.05647602339384847, 0.304884162975056, 0.05451972160796218, 0.03890893424197222, 0.03204420567446072, 0.047653537916150845, 0.016735171998903807, 0.017040648304308705, 0.018831340689249142, 0.020625743303359572, 0.023743241629031544, 0.02721840736231199, 0.04256022684799242, 0.05711212753838878, 0.18998068723667494, 0.9219798481114001, 0.15723456774113004, 0.13440358545775488, 0.06850711605928822, 0.023747321417341954, 0.025274083239438385, 0.021984588320739833, 0.021885149947662212, 0.0224817794157192, 0.023136620019039572, 0.025441947419312237, 0.0295215164891779, 0.03189737027490485, 0.03774434025895995, 0.04267822845641081, 0.10263505741989246, 0.18900499919227845, 0.26107944317343457, 1.0, 0.08677590968849247, 0.056942152971961146, 0.032804281250571964, 0.025389344281779355, 0.020818206159808558, 0.01689592474323076, 0.01434076281526333, 0.012040245180386048, 0.010436821645146319, 0.00919671335426612, 0.008137866236197566, 0.007391273775830533, 0.006306995554556655, 0.013283980881498021, 0.24539941674534305, 0.02023687936475489, 0.01451340698127213, 0.0073662722791997225, 0.009922728345674026, 0.011548320717993091, 0.0069719107928080774, 0.010029550686385938, 0.004485885803339126, 0.004140454738289183, 0.0036008950301500684, 0.0032138776427410626, 0.003086232620861354, 0.0030838569025786696, 0.0027736360053936386, 0.002580674279662415, 0.002636607108900505, 0.002633468982288529, 0.0026585015323172837, 0.002236661774128854, 0.0020048544254559608, 0.0021480293760980785, 0.0021401912969655126, 0.0022427049935282543, 0.0018672037794885354, 0.0017702865689720431, 0.0020544875040039066, 0.001791692434731093, 0.0017900263962265163, 0.001167413530799819, 0.0017746264813446682, 0.001354505475396447, 0.0013811169410735719, 0.0014035160118380447, 0.0015591626649049818, 0.001385122755330579, 0.0013262460091498585, 0.0012573026506597434, 0.0014934967288510168, 0.0012381234142790313, 0.0012283061180863358, 0.0010793602282678201, 0.001035859366142867, 0.0010590970786617845]</t>
+  </si>
+  <si>
+    <t>[0.05988933070107139, 0.04071364294300054, 0.004365489656990288, 0.0016359994277278305, 0.0013113960724828865, 0.10289249278472776, 0.06841649912668994, 0.05760864950864697, 0.2283468119004014, 0.7748596453407931, 0.021915240364313422, 0.15831945030620112, 1.0, 0.13340340621083424, 0.0036161285759284665, 0.1502276047136159, 0.09938405721618751, 0.001143951181303567, 0.004210469608709317, 0.013551268060621482, 0.07067908838292722, 0.009381986048325542, 0.08839105788875402, 0.08663621668012954, 0.8172860919179546, 0.0030705912373390704, 0.002343416201359728, 0.0046178660648353844, 0.0017386847128507902, 0.0010923759316571033, 0.002969635128997592, 0.0037810168443359613, 0.03538716018827414, 0.12498300996748017, 0.006555376587942543, 0.001500864912433896, 0.05252608332615964, 0.005684446636783056, 0.002784267123929902, 0.004741080672096737, 0.0035532506584314777, 0.0011187290626046963, 0.02346259130757393, 0.0032468065179369885, 0.001301513484898664, 0.0013936230693740487, 0.0049856976065195645, 0.001926191526052434, 0.002464833811460603, 0.00835475437450517]</t>
+  </si>
+  <si>
+    <t>[0.004820482571626201, 0.00933473688844476, 0.01038100043604012, 0.011256327790023517, 0.014629508093127248, 0.021881653899448548, 0.03081811261870647, 0.27563384842739047, 1.0, 0.05619385282725564, 0.05682402853210025, 0.03797394014708782, 0.03128893443961822, 0.028824546562917303, 0.0300787101929931, 0.035454143554858424, 0.07219417675124387, 0.5798395847137616, 0.21206910371742096, 0.361473968803694, 0.1624729695494164, 0.037605577881234344, 0.030302006511652588, 0.022606899353406016, 0.012054863041173876, 0.009192806220082882, 0.007096079041191617, 0.024971471639679603, 0.028753017483740765, 0.43326379141064875, 0.2149075366694156, 0.7851757360644489, 0.43660470195999596, 0.39308270914383714, 0.08628566866263285, 0.00889096808957349, 0.014518596935178476, 0.013081715556968437, 0.012247683110457794, 0.016993456054828823, 0.0260131665728047, 0.011337229919331789, 0.016324906647438235, 0.026925017515835547, 0.03872972949861716, 0.2000367768802575, 0.5878511846953514, 0.4803577202546729, 0.03285067146782698, 0.00718130872999231, 0.014803284157418412, 0.01070207122849523, 0.007971247817455625, 0.0074969972947882746, 0.007460309803997092, 0.004321250914606021, 0.0043177212218237036, 0.006126952018693309, 0.0047511151666495225, 0.0046792308818037354, 0.005926386005338484, 0.01599024073323111, 0.0053805668342628305, 0.0033671576584826113, 0.0036576549854792475, 0.0031492218201963945, 0.004094827739299823, 0.003485419188501588, 0.0034448982798670996, 0.00322526752188797, 0.0032503420673006575, 0.003875076844861809, 0.004529858460660061, 0.00590723333911445, 0.007894980717565345, 0.04082128065803503, 0.08633514503139939, 0.007483779186149844, 0.0035965589335858875, 0.002195242925319025, 0.0015235523134873162, 0.001097101076879106]</t>
+  </si>
+  <si>
+    <t>[0.12689337913969767, 0.0351573759920543, 0.055284192017363926, 0.04170569603931836, 0.029120808572510374, 0.0260289121791439, 0.025556557981555157, 0.025316577583294267, 0.026110143042973114, 0.027550765477714796, 0.030591391255592223, 0.056023682063312354, 0.1875407540214912, 0.05768941238173947, 0.28243042726046935, 0.4491168500836016, 0.02219284062075159, 0.013518016683559925, 0.01325891323999113, 0.015647165549765935, 0.01847469489446809, 0.022081904393729666, 0.026865454691168376, 0.03277710252355019, 0.18609106748100204, 1.0, 0.5423873991056302, 0.06817809901348929, 0.029819830462097026, 0.026005861866186242, 0.018745130834736987, 0.013980292977206763, 0.011156264756508537, 0.008703001485417751, 0.009119459568015903, 0.008169202788360514, 0.0077779005717457, 0.014654094893479819, 0.020611375660211404, 0.11176681867511144, 0.18570510979382812, 0.10238538912247087, 0.2838116786347838, 0.01940115550121094, 0.013144114624736487, 0.010449922808694192, 0.008134535271703514, 0.008006078996290278, 0.006453370649059382, 0.005407512564554176, 0.004244465218726007, 0.005004339851521536, 0.004000893627713035, 0.003244352841495526, 0.0020194849416827415, 0.02690589208469761, 0.18849323038173824, 0.0067970471753514075, 0.005371822346577093, 0.004370191105761065, 0.003766381654693145, 0.0034535092555253617, 0.0036771673773918477, 0.0034768022088167367, 0.0031742992125409746, 0.002438264894306725, 0.002921596127081469, 0.0023123184679219562, 0.002472063535870225, 0.0020663501024018693, 0.0018280078551336668, 0.0023488012329762587, 0.0022328143761708697, 0.001957367520332133, 0.0020080583830981865, 0.001542612057972599, 0.0014900647366774883, 0.001413335729890691, 0.0018277329198577014, 0.0016143672938018726, 0.0016306890273227613, 0.001308542997358228, 0.001411415405308498, 0.0012116325108022662, 0.0011337536979096213, 0.001276936201581666, 0.001512951825664813, 0.001211352098535722, 0.0010118448269452417, 0.0011259146405372426, 0.0010883137611265425, 0.001014837145762726, 0.0010213297079226605, 0.0011039791364394693, 0.0012012560384906878]</t>
+  </si>
+  <si>
+    <t>[0.014153658104561906, 0.015405492178269779, 0.037832469836374547, 0.0011855590492807994, 0.0010165321622575198, 0.024877593160088373, 0.08748226906724033, 0.0063758090704389685, 0.06856873226445857, 0.1861552731999756, 0.04362115701395639, 0.002582214978748275, 0.042524430527240135, 0.12091392845779388, 0.10785191282925342, 0.19759652453931476, 0.0020389661105235184, 0.04909981546028975, 0.001786935235614777, 0.00891343593567415, 0.03513932849749471, 0.0854072270180703, 0.00498130844439463, 0.07145304024749212, 0.047192206323927885, 0.2846992324072698, 0.0923976317317374, 1.0, 0.005813387187308581, 0.0026331936313877587, 0.012895807552389825, 0.001015503281043258]</t>
+  </si>
+  <si>
+    <t>[0.018439960622296515, 0.007787616824202614, 0.07611827319372423, 0.00249005488898324, 0.0027057449346404162, 0.07585176867000538, 0.0017765038053050347, 0.0017407191113187703, 0.0012498062153626771, 0.0014932510645973079, 0.0015189741282674583, 0.029016837717205358, 0.06030393371821052, 0.010651204143903846, 0.14808390471742455, 0.10154287838364566, 0.023561370735526402, 0.001275393535980367, 0.03400478114910192, 0.02066053506066171, 0.03644847954089886, 0.05608887237835473, 0.10809555939561481, 0.0025643638948522566, 0.0010926939474928384, 0.006892075883292878, 0.07260016133844004, 0.4595849922786185, 0.6060726815741958, 0.7337822952142422, 0.03280645721726611, 0.001440895857432725, 0.001230812293567469, 0.0015688757500366163, 0.004252255880346989, 0.0017290597202360225, 0.010852837265662213, 0.009967860540048761, 0.008136527835987128, 0.1688506581221924, 1.0, 0.026265701103076602, 0.0010048258646362467]</t>
+  </si>
+  <si>
+    <t>[0.019781003169972666, 0.008098082587331582, 0.004678754604938202, 0.0024376501356992374, 0.01443532632908146, 0.0017858308704962898, 0.0018042477325031017, 0.10905948673742494, 0.0010427217369154162, 0.004460092498756395, 0.0011528503297370649, 0.014757532904592106, 0.043091516559513855, 0.1982847250310597, 0.0013673697382091251, 0.0010166709330861846, 0.0056988329911344515, 0.06598961802193175, 0.06150696567748267, 0.003080925864373404, 0.0017597863819730003, 0.011784948663603604, 0.040860783038029785, 0.11359226199693988, 0.009763788665122775, 0.1419931083934836, 0.0029668819606029273, 0.0012306390749278857, 0.0028571011981506113, 0.0023204111280020704, 0.0018738716212082164, 0.002955330038721244, 0.0013041559088662572, 0.002362252973037224, 0.0025559463494424007, 0.002049336653446779, 0.0014185555669276725, 0.030686455780008136, 0.018032046751255488, 1.0, 0.3870965240962862, 0.010662974091013647]</t>
   </si>
 </sst>
 </file>
@@ -482,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,139 +672,369 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>93.05784922929</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>78.04695019242</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>116.08372962396</v>
+      </c>
+      <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5">
+        <v>117.91438307207</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>84.09390038484</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>88.05242949568</v>
+      </c>
+      <c r="F7">
+        <v>104</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>73.05276384884999</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>78.01393581197999</v>
+      </c>
+      <c r="F9">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>88.05242949568</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>86.10955044898</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>61.01637834013</v>
+      </c>
+      <c r="F12">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>60.05751487612</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>79.04219916515</v>
+      </c>
+      <c r="F14">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15">
+        <v>92.06260025656</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
